--- a/dados_R01.xlsx
+++ b/dados_R01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur.rocha\Documents\Listas de Equipamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F764C0-166E-437B-9B1A-9496AA8BC48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F745EB-53A0-49B5-9CDF-7AA318AE0A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3570" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2186,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C253" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="C195" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J234" sqref="J234:J266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dados_R01.xlsx
+++ b/dados_R01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur.rocha\Documents\Listas de Equipamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F745EB-53A0-49B5-9CDF-7AA318AE0A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5D8C00-DB61-4C45-98B1-871640B7A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3570" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="3525" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2184,10 +2184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C195" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J234" sqref="J234:J266"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H275" sqref="H275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,7 +2238,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>245</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
         <v>246</v>
@@ -2961,7 +2962,7 @@
         <v>245</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
         <v>248</v>
@@ -3057,7 +3058,7 @@
         <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s">
         <v>237</v>
@@ -3153,7 +3154,7 @@
         <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
         <v>250</v>
@@ -3473,7 +3474,7 @@
         <v>69</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H40" t="s">
         <v>255</v>
@@ -3505,7 +3506,7 @@
         <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H41" t="s">
         <v>27</v>
@@ -3569,7 +3570,7 @@
         <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
         <v>195</v>
@@ -3601,7 +3602,7 @@
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H44" t="s">
         <v>22</v>
@@ -3633,7 +3634,7 @@
         <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H45" t="s">
         <v>22</v>
@@ -3665,7 +3666,7 @@
         <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H46" t="s">
         <v>198</v>
@@ -3761,7 +3762,7 @@
         <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H49" t="s">
         <v>232</v>
@@ -4017,7 +4018,7 @@
         <v>69</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H57" t="s">
         <v>233</v>
@@ -4209,7 +4210,7 @@
         <v>69</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H63" t="s">
         <v>300</v>
@@ -4241,7 +4242,7 @@
         <v>69</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H64" t="s">
         <v>335</v>
@@ -4401,7 +4402,7 @@
         <v>69</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H69" t="s">
         <v>303</v>
@@ -4465,7 +4466,7 @@
         <v>69</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H71" t="s">
         <v>330</v>
@@ -4561,7 +4562,7 @@
         <v>245</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H74" t="s">
         <v>330</v>
@@ -4593,7 +4594,7 @@
         <v>69</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H75" t="s">
         <v>203</v>
@@ -4657,7 +4658,7 @@
         <v>69</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H77" t="s">
         <v>207</v>
@@ -4689,7 +4690,7 @@
         <v>69</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H78" t="s">
         <v>210</v>
@@ -6065,7 +6066,7 @@
         <v>69</v>
       </c>
       <c r="G121" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H121" t="s">
         <v>446</v>
@@ -6641,7 +6642,7 @@
         <v>69</v>
       </c>
       <c r="G139" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H139" t="s">
         <v>286</v>
@@ -6673,7 +6674,7 @@
         <v>69</v>
       </c>
       <c r="G140" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H140" t="s">
         <v>327</v>
@@ -6769,7 +6770,7 @@
         <v>245</v>
       </c>
       <c r="G143" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H143" t="s">
         <v>327</v>
@@ -6801,7 +6802,7 @@
         <v>69</v>
       </c>
       <c r="G144" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H144" t="s">
         <v>288</v>
@@ -6833,7 +6834,7 @@
         <v>69</v>
       </c>
       <c r="G145" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H145" t="s">
         <v>328</v>
@@ -6929,7 +6930,7 @@
         <v>245</v>
       </c>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H148" t="s">
         <v>328</v>
@@ -7709,7 +7710,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>100</v>
       </c>
@@ -9853,7 +9854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>100</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>100</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>69</v>
       </c>
       <c r="G246" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H246" t="s">
         <v>71</v>
@@ -10129,7 +10130,7 @@
         <v>69</v>
       </c>
       <c r="G248" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H248" t="s">
         <v>71</v>
@@ -10193,7 +10194,7 @@
         <v>459</v>
       </c>
       <c r="G250" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H250" t="s">
         <v>71</v>
@@ -10718,7 +10719,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J266" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J266" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="SCL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
